--- a/lib/excels/for_test.xlsx
+++ b/lib/excels/for_test.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="83">
   <si>
     <t xml:space="preserve">Family</t>
   </si>
@@ -175,10 +175,13 @@
     <t xml:space="preserve">thimphy</t>
   </si>
   <si>
+    <t xml:space="preserve">Chapcha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">thimtrhom</t>
+  </si>
+  <si>
     <t xml:space="preserve">thimthrom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">thimtrhom</t>
   </si>
   <si>
     <t xml:space="preserve">green</t>
@@ -382,10 +385,10 @@
   <dimension ref="A1:AL3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L3" activeCellId="0" sqref="L3"/>
+      <selection pane="topLeft" activeCell="O5" activeCellId="0" sqref="O5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="12.41"/>
@@ -569,7 +572,7 @@
         <v>52</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="R2" s="0" t="n">
         <v>11.1</v>
@@ -581,105 +584,105 @@
         <v>33.2</v>
       </c>
       <c r="U2" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="V2" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="W2" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="X2" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Y2" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Z2" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AA2" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AB2" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AC2" s="1" t="n">
         <v>44177</v>
       </c>
       <c r="AD2" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AE2" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AF2" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AG2" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AH2" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AJ2" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AK2" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AL2" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>47</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="N3" s="2" t="s">
         <v>50</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="P3" s="2" t="s">
         <v>52</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="R3" s="2" t="n">
         <v>22.2</v>
@@ -691,56 +694,56 @@
         <v>33.2</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="W3" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="X3" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Y3" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Z3" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AA3" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AB3" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AC3" s="4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AD3" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AE3" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AF3" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AG3" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AH3" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AI3" s="2"/>
       <c r="AJ3" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AK3" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AL3" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
